--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H2">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I2">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J2">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.31877133333334</v>
+        <v>51.02156433333334</v>
       </c>
       <c r="N2">
-        <v>291.956314</v>
+        <v>153.064693</v>
       </c>
       <c r="O2">
-        <v>0.7059334474701922</v>
+        <v>0.4760900215891154</v>
       </c>
       <c r="P2">
-        <v>0.7149546880603714</v>
+        <v>0.4807539937572116</v>
       </c>
       <c r="Q2">
-        <v>2699.418963719085</v>
+        <v>1896.639220137587</v>
       </c>
       <c r="R2">
-        <v>24294.77067347177</v>
+        <v>17069.75298123829</v>
       </c>
       <c r="S2">
-        <v>0.003842023787946242</v>
+        <v>0.002461423483865795</v>
       </c>
       <c r="T2">
-        <v>0.003901003330042802</v>
+        <v>0.002494435755991481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H3">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I3">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J3">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.861437</v>
       </c>
       <c r="O3">
-        <v>0.006918788836773586</v>
+        <v>0.008900168787493621</v>
       </c>
       <c r="P3">
-        <v>0.007007205186661606</v>
+        <v>0.008987358473548528</v>
       </c>
       <c r="Q3">
-        <v>26.4567571615781</v>
+        <v>35.45633897526477</v>
       </c>
       <c r="R3">
-        <v>238.110814454203</v>
+        <v>319.1070507773829</v>
       </c>
       <c r="S3">
-        <v>3.765532202776587E-05</v>
+        <v>4.601458436533426E-05</v>
       </c>
       <c r="T3">
-        <v>3.823337509908309E-05</v>
+        <v>4.663172562151216E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H4">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I4">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J4">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.45494933333333</v>
+        <v>28.11170133333333</v>
       </c>
       <c r="N4">
-        <v>52.36484799999999</v>
+        <v>84.335104</v>
       </c>
       <c r="O4">
-        <v>0.1266151677572303</v>
+        <v>0.2623145854026591</v>
       </c>
       <c r="P4">
-        <v>0.1282332039825957</v>
+        <v>0.2648843261452188</v>
       </c>
       <c r="Q4">
-        <v>484.163749661079</v>
+        <v>1045.004322981148</v>
       </c>
       <c r="R4">
-        <v>4357.473746949711</v>
+        <v>9405.038906830336</v>
       </c>
       <c r="S4">
-        <v>0.0006890996427232232</v>
+        <v>0.001356187383460562</v>
       </c>
       <c r="T4">
-        <v>0.0006996781252183679</v>
+        <v>0.001374376381513797</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H5">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I5">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J5">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.218453999999999</v>
+        <v>3.119026</v>
       </c>
       <c r="N5">
-        <v>10.436908</v>
+        <v>6.238052</v>
       </c>
       <c r="O5">
-        <v>0.03785375803879289</v>
+        <v>0.02910410872500189</v>
       </c>
       <c r="P5">
-        <v>0.02555833166004005</v>
+        <v>0.01959281630196169</v>
       </c>
       <c r="Q5">
-        <v>144.7489882568086</v>
+        <v>115.9444465791113</v>
       </c>
       <c r="R5">
-        <v>868.4939295408519</v>
+        <v>695.6666794746679</v>
       </c>
       <c r="S5">
-        <v>0.0002060180593077005</v>
+        <v>0.0001504705695229401</v>
       </c>
       <c r="T5">
-        <v>0.000139453784388271</v>
+        <v>0.0001016591066924504</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H6">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I6">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J6">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.91229366666667</v>
+        <v>23.96178866666667</v>
       </c>
       <c r="N6">
-        <v>50.736881</v>
+        <v>71.885366</v>
       </c>
       <c r="O6">
-        <v>0.1226788378970111</v>
+        <v>0.22359111549573</v>
       </c>
       <c r="P6">
-        <v>0.1242465711103312</v>
+        <v>0.2257815053220593</v>
       </c>
       <c r="Q6">
-        <v>469.1116176078265</v>
+        <v>890.7384311648215</v>
       </c>
       <c r="R6">
-        <v>4222.004558470438</v>
+        <v>8016.645880483395</v>
       </c>
       <c r="S6">
-        <v>0.0006676762734036904</v>
+        <v>0.001155983947380261</v>
       </c>
       <c r="T6">
-        <v>0.0006779258822160131</v>
+        <v>0.001171487844573891</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>135.476761</v>
       </c>
       <c r="I7">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J7">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>97.31877133333334</v>
+        <v>51.02156433333334</v>
       </c>
       <c r="N7">
-        <v>291.956314</v>
+        <v>153.064693</v>
       </c>
       <c r="O7">
-        <v>0.7059334474701922</v>
+        <v>0.4760900215891154</v>
       </c>
       <c r="P7">
-        <v>0.7149546880603714</v>
+        <v>0.4807539937572116</v>
       </c>
       <c r="Q7">
-        <v>4394.810641579885</v>
+        <v>2304.078759011042</v>
       </c>
       <c r="R7">
-        <v>39553.29577421896</v>
+        <v>20736.70883109937</v>
       </c>
       <c r="S7">
-        <v>0.006255037567494223</v>
+        <v>0.002990191020986439</v>
       </c>
       <c r="T7">
-        <v>0.006351059682892107</v>
+        <v>0.003030295050357912</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>135.476761</v>
       </c>
       <c r="I8">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J8">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.861437</v>
       </c>
       <c r="O8">
-        <v>0.006918788836773586</v>
+        <v>0.008900168787493621</v>
       </c>
       <c r="P8">
-        <v>0.007007205186661606</v>
+        <v>0.008987358473548528</v>
       </c>
       <c r="Q8">
         <v>43.07313517395077</v>
@@ -948,10 +948,10 @@
         <v>387.658216565557</v>
       </c>
       <c r="S8">
-        <v>6.130504830259627E-05</v>
+        <v>5.589952233150445E-05</v>
       </c>
       <c r="T8">
-        <v>6.224615223028106E-05</v>
+        <v>5.664923901170984E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>135.476761</v>
       </c>
       <c r="I9">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J9">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.45494933333333</v>
+        <v>28.11170133333333</v>
       </c>
       <c r="N9">
-        <v>52.36484799999999</v>
+        <v>84.335104</v>
       </c>
       <c r="O9">
-        <v>0.1266151677572303</v>
+        <v>0.2623145854026591</v>
       </c>
       <c r="P9">
-        <v>0.1282332039825957</v>
+        <v>0.2648843261452188</v>
       </c>
       <c r="Q9">
-        <v>788.2466663663697</v>
+        <v>1269.49408094646</v>
       </c>
       <c r="R9">
-        <v>7094.219997297328</v>
+        <v>11425.44672851815</v>
       </c>
       <c r="S9">
-        <v>0.001121894186731391</v>
+        <v>0.001647526060988849</v>
       </c>
       <c r="T9">
-        <v>0.001139116569794662</v>
+        <v>0.001669622453184679</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>135.476761</v>
       </c>
       <c r="I10">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J10">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.218453999999999</v>
+        <v>3.119026</v>
       </c>
       <c r="N10">
-        <v>10.436908</v>
+        <v>6.238052</v>
       </c>
       <c r="O10">
-        <v>0.03785375803879289</v>
+        <v>0.02910410872500189</v>
       </c>
       <c r="P10">
-        <v>0.02555833166004005</v>
+        <v>0.01959281630196169</v>
       </c>
       <c r="Q10">
-        <v>235.6597484491647</v>
+        <v>140.8518466515953</v>
       </c>
       <c r="R10">
-        <v>1413.958490694988</v>
+        <v>845.111079909572</v>
       </c>
       <c r="S10">
-        <v>0.0003354093497793696</v>
+        <v>0.0001827949350688584</v>
       </c>
       <c r="T10">
-        <v>0.0002270388494247604</v>
+        <v>0.0001234977036766753</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>135.476761</v>
       </c>
       <c r="I11">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J11">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.91229366666667</v>
+        <v>23.96178866666667</v>
       </c>
       <c r="N11">
-        <v>50.736881</v>
+        <v>71.885366</v>
       </c>
       <c r="O11">
-        <v>0.1226788378970111</v>
+        <v>0.22359111549573</v>
       </c>
       <c r="P11">
-        <v>0.1242465711103312</v>
+        <v>0.2257815053220593</v>
       </c>
       <c r="Q11">
-        <v>763.740922346938</v>
+        <v>1082.08850544217</v>
       </c>
       <c r="R11">
-        <v>6873.668301122441</v>
+        <v>9738.796548979528</v>
       </c>
       <c r="S11">
-        <v>0.001087015698905158</v>
+        <v>0.001404314553151221</v>
       </c>
       <c r="T11">
-        <v>0.001103702656537836</v>
+        <v>0.001423149026163512</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H12">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I12">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J12">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>97.31877133333334</v>
+        <v>51.02156433333334</v>
       </c>
       <c r="N12">
-        <v>291.956314</v>
+        <v>153.064693</v>
       </c>
       <c r="O12">
-        <v>0.7059334474701922</v>
+        <v>0.4760900215891154</v>
       </c>
       <c r="P12">
-        <v>0.7149546880603714</v>
+        <v>0.4807539937572116</v>
       </c>
       <c r="Q12">
-        <v>254261.6801789658</v>
+        <v>121206.719044119</v>
       </c>
       <c r="R12">
-        <v>2288355.121610692</v>
+        <v>1090860.471397071</v>
       </c>
       <c r="S12">
-        <v>0.3618850710987392</v>
+        <v>0.1572998499081315</v>
       </c>
       <c r="T12">
-        <v>0.3674404286298268</v>
+        <v>0.1594095337900538</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H13">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I13">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J13">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.861437</v>
       </c>
       <c r="O13">
-        <v>0.006918788836773586</v>
+        <v>0.008900168787493621</v>
       </c>
       <c r="P13">
-        <v>0.007007205186661606</v>
+        <v>0.008987358473548528</v>
       </c>
       <c r="Q13">
-        <v>2491.9953584092</v>
+        <v>2265.874537908273</v>
       </c>
       <c r="R13">
-        <v>22427.95822568281</v>
+        <v>20392.87084117446</v>
       </c>
       <c r="S13">
-        <v>0.003546802321218382</v>
+        <v>0.002940610285753971</v>
       </c>
       <c r="T13">
-        <v>0.003601249869791291</v>
+        <v>0.002980049345145911</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H14">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I14">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J14">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.45494933333333</v>
+        <v>28.11170133333333</v>
       </c>
       <c r="N14">
-        <v>52.36484799999999</v>
+        <v>84.335104</v>
       </c>
       <c r="O14">
-        <v>0.1266151677572303</v>
+        <v>0.2623145854026591</v>
       </c>
       <c r="P14">
-        <v>0.1282332039825957</v>
+        <v>0.2648843261452188</v>
       </c>
       <c r="Q14">
-        <v>45603.99483189856</v>
+        <v>66782.0975284258</v>
       </c>
       <c r="R14">
-        <v>410435.953487087</v>
+        <v>601038.8777558323</v>
       </c>
       <c r="S14">
-        <v>0.06490716532869595</v>
+        <v>0.08666857745689699</v>
       </c>
       <c r="T14">
-        <v>0.06590356595012953</v>
+        <v>0.08783096445877103</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H15">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I15">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J15">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.218453999999999</v>
+        <v>3.119026</v>
       </c>
       <c r="N15">
-        <v>10.436908</v>
+        <v>6.238052</v>
       </c>
       <c r="O15">
-        <v>0.03785375803879289</v>
+        <v>0.02910410872500189</v>
       </c>
       <c r="P15">
-        <v>0.02555833166004005</v>
+        <v>0.01959281630196169</v>
       </c>
       <c r="Q15">
-        <v>13634.08994788835</v>
+        <v>7409.551490884359</v>
       </c>
       <c r="R15">
-        <v>81804.53968733008</v>
+        <v>44457.30894530615</v>
       </c>
       <c r="S15">
-        <v>0.01940510110168913</v>
+        <v>0.009615979597454775</v>
       </c>
       <c r="T15">
-        <v>0.0131353280103751</v>
+        <v>0.006496631859302214</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H16">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I16">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J16">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.91229366666667</v>
+        <v>23.96178866666667</v>
       </c>
       <c r="N16">
-        <v>50.736881</v>
+        <v>71.885366</v>
       </c>
       <c r="O16">
-        <v>0.1226788378970111</v>
+        <v>0.22359111549573</v>
       </c>
       <c r="P16">
-        <v>0.1242465711103312</v>
+        <v>0.2257815053220593</v>
       </c>
       <c r="Q16">
-        <v>44186.21551065426</v>
+        <v>56923.57387830559</v>
       </c>
       <c r="R16">
-        <v>397675.9395958883</v>
+        <v>512312.1649047503</v>
       </c>
       <c r="S16">
-        <v>0.06288927112572489</v>
+        <v>0.0738743668495196</v>
       </c>
       <c r="T16">
-        <v>0.0638546947197741</v>
+        <v>0.07486515966413877</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H17">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I17">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J17">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>97.31877133333334</v>
+        <v>51.02156433333334</v>
       </c>
       <c r="N17">
-        <v>291.956314</v>
+        <v>153.064693</v>
       </c>
       <c r="O17">
-        <v>0.7059334474701922</v>
+        <v>0.4760900215891154</v>
       </c>
       <c r="P17">
-        <v>0.7149546880603714</v>
+        <v>0.4807539937572116</v>
       </c>
       <c r="Q17">
-        <v>3769.205840950924</v>
+        <v>3926.318818971588</v>
       </c>
       <c r="R17">
-        <v>22615.23504570554</v>
+        <v>23557.91291382953</v>
       </c>
       <c r="S17">
-        <v>0.005364627980033103</v>
+        <v>0.005095504323410441</v>
       </c>
       <c r="T17">
-        <v>0.003631320847137303</v>
+        <v>0.003442563016194681</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H18">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I18">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J18">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.861437</v>
       </c>
       <c r="O18">
-        <v>0.006918788836773586</v>
+        <v>0.008900168787493621</v>
       </c>
       <c r="P18">
-        <v>0.007007205186661606</v>
+        <v>0.008987358473548528</v>
       </c>
       <c r="Q18">
-        <v>36.94164002191467</v>
+        <v>73.39977444962832</v>
       </c>
       <c r="R18">
-        <v>221.649840131488</v>
+        <v>440.3986466977699</v>
       </c>
       <c r="S18">
-        <v>5.257822577285305E-05</v>
+        <v>9.525687680742022E-05</v>
       </c>
       <c r="T18">
-        <v>3.559024187046703E-05</v>
+        <v>6.435629926341706E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H19">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I19">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J19">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.45494933333333</v>
+        <v>28.11170133333333</v>
       </c>
       <c r="N19">
-        <v>52.36484799999999</v>
+        <v>84.335104</v>
       </c>
       <c r="O19">
-        <v>0.1266151677572303</v>
+        <v>0.2623145854026591</v>
       </c>
       <c r="P19">
-        <v>0.1282332039825957</v>
+        <v>0.2648843261452188</v>
       </c>
       <c r="Q19">
-        <v>676.0391246140587</v>
+        <v>2163.310816133973</v>
       </c>
       <c r="R19">
-        <v>4056.234747684352</v>
+        <v>12979.86489680384</v>
       </c>
       <c r="S19">
-        <v>0.0009621916542999664</v>
+        <v>0.002807504974692427</v>
       </c>
       <c r="T19">
-        <v>0.0006513082782637681</v>
+        <v>0.001896772562679312</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H20">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I20">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J20">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.218453999999999</v>
+        <v>3.119026</v>
       </c>
       <c r="N20">
-        <v>10.436908</v>
+        <v>6.238052</v>
       </c>
       <c r="O20">
-        <v>0.03785375803879289</v>
+        <v>0.02910410872500189</v>
       </c>
       <c r="P20">
-        <v>0.02555833166004005</v>
+        <v>0.01959281630196169</v>
       </c>
       <c r="Q20">
-        <v>202.113395268448</v>
+        <v>240.02185430173</v>
       </c>
       <c r="R20">
-        <v>808.4535810737921</v>
+        <v>960.0874172069199</v>
       </c>
       <c r="S20">
-        <v>0.0002876635612776882</v>
+        <v>0.000311495946380585</v>
       </c>
       <c r="T20">
-        <v>0.0001298131253981172</v>
+        <v>0.0001402994164584988</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H21">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I21">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J21">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.91229366666667</v>
+        <v>23.96178866666667</v>
       </c>
       <c r="N21">
-        <v>50.736881</v>
+        <v>71.885366</v>
       </c>
       <c r="O21">
-        <v>0.1226788378970111</v>
+        <v>0.22359111549573</v>
       </c>
       <c r="P21">
-        <v>0.1242465711103312</v>
+        <v>0.2257815053220593</v>
       </c>
       <c r="Q21">
-        <v>655.0217928043575</v>
+        <v>1843.958001042477</v>
       </c>
       <c r="R21">
-        <v>3930.130756826144</v>
+        <v>11063.74800625486</v>
       </c>
       <c r="S21">
-        <v>0.0009322781470388404</v>
+        <v>0.002393054766999349</v>
       </c>
       <c r="T21">
-        <v>0.0006310598019607293</v>
+        <v>0.001616766724885527</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H22">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I22">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J22">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>97.31877133333334</v>
+        <v>51.02156433333334</v>
       </c>
       <c r="N22">
-        <v>291.956314</v>
+        <v>153.064693</v>
       </c>
       <c r="O22">
-        <v>0.7059334474701922</v>
+        <v>0.4760900215891154</v>
       </c>
       <c r="P22">
-        <v>0.7149546880603714</v>
+        <v>0.4807539937572116</v>
       </c>
       <c r="Q22">
-        <v>230866.1224309322</v>
+        <v>237515.3512622008</v>
       </c>
       <c r="R22">
-        <v>2077795.101878389</v>
+        <v>2137638.161359807</v>
       </c>
       <c r="S22">
-        <v>0.3285866870359794</v>
+        <v>0.3082430528527213</v>
       </c>
       <c r="T22">
-        <v>0.3336308755704724</v>
+        <v>0.3123771661446138</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H23">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I23">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J23">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.861437</v>
       </c>
       <c r="O23">
-        <v>0.006918788836773586</v>
+        <v>0.008900168787493621</v>
       </c>
       <c r="P23">
-        <v>0.007007205186661606</v>
+        <v>0.008987358473548528</v>
       </c>
       <c r="Q23">
-        <v>2262.697647191144</v>
+        <v>4440.182780555787</v>
       </c>
       <c r="R23">
-        <v>20364.2788247203</v>
+        <v>39961.64502500209</v>
       </c>
       <c r="S23">
-        <v>0.003220447919451988</v>
+        <v>0.005762387518235391</v>
       </c>
       <c r="T23">
-        <v>0.003269885547670483</v>
+        <v>0.005839671864505978</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H24">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I24">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J24">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.45494933333333</v>
+        <v>28.11170133333333</v>
       </c>
       <c r="N24">
-        <v>52.36484799999999</v>
+        <v>84.335104</v>
       </c>
       <c r="O24">
-        <v>0.1266151677572303</v>
+        <v>0.2623145854026591</v>
       </c>
       <c r="P24">
-        <v>0.1282332039825957</v>
+        <v>0.2648843261452188</v>
       </c>
       <c r="Q24">
-        <v>41407.80257091871</v>
+        <v>130865.4625550664</v>
       </c>
       <c r="R24">
-        <v>372670.2231382684</v>
+        <v>1177789.162995598</v>
       </c>
       <c r="S24">
-        <v>0.05893481694477972</v>
+        <v>0.1698347895266203</v>
       </c>
       <c r="T24">
-        <v>0.05983953505918935</v>
+        <v>0.1721125902890701</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H25">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I25">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J25">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.218453999999999</v>
+        <v>3.119026</v>
       </c>
       <c r="N25">
-        <v>10.436908</v>
+        <v>6.238052</v>
       </c>
       <c r="O25">
-        <v>0.03785375803879289</v>
+        <v>0.02910410872500189</v>
       </c>
       <c r="P25">
-        <v>0.02555833166004005</v>
+        <v>0.01959281630196169</v>
       </c>
       <c r="Q25">
-        <v>12379.56689709599</v>
+        <v>14519.67546792657</v>
       </c>
       <c r="R25">
-        <v>74277.40138257593</v>
+        <v>87118.0528075594</v>
       </c>
       <c r="S25">
-        <v>0.01761956596673899</v>
+        <v>0.01884336767657473</v>
       </c>
       <c r="T25">
-        <v>0.0119266978904538</v>
+        <v>0.01273072821583185</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H26">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I26">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J26">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.91229366666667</v>
+        <v>23.96178866666667</v>
       </c>
       <c r="N26">
-        <v>50.736881</v>
+        <v>71.885366</v>
       </c>
       <c r="O26">
-        <v>0.1226788378970111</v>
+        <v>0.22359111549573</v>
       </c>
       <c r="P26">
-        <v>0.1242465711103312</v>
+        <v>0.2257815053220593</v>
       </c>
       <c r="Q26">
-        <v>40120.47836961538</v>
+        <v>111546.8082250808</v>
       </c>
       <c r="R26">
-        <v>361084.3053265383</v>
+        <v>1003921.274025727</v>
       </c>
       <c r="S26">
-        <v>0.05710259665193857</v>
+        <v>0.1447633953786796</v>
       </c>
       <c r="T26">
-        <v>0.05797918804984249</v>
+        <v>0.1467049420622976</v>
       </c>
     </row>
   </sheetData>
